--- a/files/root.xlsx
+++ b/files/root.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhancao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MACData/Projects/Research/nc-util-java-excel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>nhancv</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,7 +344,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -347,8 +355,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/files/root.xlsx
+++ b/files/root.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MACData/Projects/Research/nc-util-java-excel/files/"/>
     </mc:Choice>
@@ -24,16 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>nhancv</t>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,12 +55,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,8 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,34 +379,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/files/root.xlsx
+++ b/files/root.xlsx
@@ -95,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -379,33 +380,33 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/files/root.xlsx
+++ b/files/root.xlsx
@@ -55,12 +55,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -95,11 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,12 +397,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -401,7 +412,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/files/root.xlsx
+++ b/files/root.xlsx
@@ -55,12 +55,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -105,12 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,12 +408,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -412,7 +423,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
